--- a/ovenCHp.xlsx
+++ b/ovenCHp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="315" windowWidth="17820" windowHeight="8895" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="315" windowWidth="17820" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="ovenCHptrap" sheetId="1" r:id="rId1"/>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1733,7 +1733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
